--- a/biology/Zoologie/Agdistis_frankeniae/Agdistis_frankeniae.xlsx
+++ b/biology/Zoologie/Agdistis_frankeniae/Agdistis_frankeniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agdistis frankeniae est une espèce de lépidoptères de la famille des Pterophoridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure de l'imago est de 29 mm.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente des îles Canaries jusqu'au sud de la France, en passant par et l'Afrique du Nord, le long de la Méditerranée[1], jusqu'au nord de l'Asie, la Sibérie et l'Asie centrale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente des îles Canaries jusqu'au sud de la France, en passant par et l'Afrique du Nord, le long de la Méditerranée, jusqu'au nord de l'Asie, la Sibérie et l'Asie centrale.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille consomme les plantes des espèces Frankenia boissieri, Frankenia ericifolia, Frankenia laevis, Frankenia pulverulenta, Limonium minutum (en) et Limonium oleifolium[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille consomme les plantes des espèces Frankenia boissieri, Frankenia ericifolia, Frankenia laevis, Frankenia pulverulenta, Limonium minutum (en) et Limonium oleifolium.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Agdistis frankeniae (Zeller, 1847)[3].
-L'espèce a été initialement classée dans le genre Adactyla sous le protonyme Adactyla frankeniae Zeller, 1847[3],[4].
-Agdistis frankeniae a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Agdistis frankeniae (Zeller, 1847).
+L'espèce a été initialement classée dans le genre Adactyla sous le protonyme Adactyla frankeniae Zeller, 1847,.
+Agdistis frankeniae a pour synonymes :
 Adactyla frankeniae Zeller, 1847
 Agdistis bahrlutia Amsel, 1955
 Agdistis kulunda Ustjuzhanin, 1991
@@ -645,9 +665,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, frankeniae, lui a été donné en référence à Frankenia pulverulenta, plante sur laquelle elle a été découverte[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, frankeniae, lui a été donné en référence à Frankenia pulverulenta, plante sur laquelle elle a été découverte.
 </t>
         </is>
       </c>
@@ -676,7 +698,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) P. C. Zeller, « Bemerkungen über bie auf einer Reise nach Italien und Sicilien beobachteten Schmetterlingsarten », Isis, Iéna, vol. 1847, no 12,‎ 1847, p. 881-914 (ISSN 2568-0013, lire en ligne)</t>
         </is>
